--- a/biology/Zoologie/Beethoven_2/Beethoven_2.xlsx
+++ b/biology/Zoologie/Beethoven_2/Beethoven_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beethoven 2 (Beethoven's 2nd) est un film américain de Rod Daniel sorti en 1993 et qui est la suite de Beethoven (1992).
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Beethoven, le saint-bernard de la famille Newton (la même que celle du premier volet), tombe amoureux de Missy. Mais ils sont rapidement séparés par la méchante maîtresse de la chienne. Celle-ci veut en effet utiliser Missy comme outil de négociation dans son divorce. Son avidité est attisée lorsque la chienne met au monde quatre adorables chiots. Mais les enfants Newton ne l'entendent pas de cette oreille et vont tout faire pour sauver les chiens.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Beethoven 2
 Titre original : Beethoven's 2nd
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Charles Grodin (V. F. : Michel Papineschi) : George Newton
 Bonnie Hunt (V. F. : Céline Monsarrat) : Alice Newton
@@ -637,6 +655,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -662,7 +682,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe un jeu de société Beethoven's 2nd (1993) publié par Parker Brothers de 2 à 4 joueurs pour une durée moyenne de 20 minutes.
 Il existe aussi un jeu vidéo de 1993 Beethoven's 2nd (Beethoven: The Ultimate Canine Caper aux États-Unis) sur DOS, Super Nintendo et Game Boy développé et publié par Hi Tech Expressions.
@@ -694,7 +716,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Contrairement au premier film, ce second volet ne comporte aucune arme à feu, ce qui permet de réduire un peu la violence.
 Dans la version française du film, la fille aînée des Newton conserve son prénom tel quel (Ryce) alors que dans celle du premier film, son prénom était Annie. Il est à noter également que son interprète, Nicholle Tom, venait entretemps de tourner la première saison de la série Une nounou d'enfer.
